--- a/data/trans_bre/PCS12_SP_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R2-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>9.853086178514022</v>
+        <v>8.702722098204205</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.568053933499317</v>
+        <v>2.358336550624868</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.817602867935607</v>
+        <v>2.855690509556629</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.623922703118259</v>
+        <v>-2.444656066568799</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2149938243321843</v>
+        <v>0.1870123977178116</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05407005843715706</v>
+        <v>0.05022666023564306</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06221393743057314</v>
+        <v>0.06264194610770843</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.04814664692313879</v>
+        <v>-0.04503735316834537</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>19.82325299768524</v>
+        <v>19.73252220224719</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.69394696195891</v>
+        <v>13.03063062650244</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.89121049606249</v>
+        <v>13.62420354662022</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.353346892721715</v>
+        <v>7.998335818675301</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4924230973163101</v>
+        <v>0.4938046255618329</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3240689386002462</v>
+        <v>0.3045311942929593</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3478724089824236</v>
+        <v>0.3390873549854675</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.1789025563991001</v>
+        <v>0.1692814356847076</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>9.969870907749135</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13.0442978824171</v>
+        <v>13.04429788241712</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5204340502549611</v>
@@ -749,7 +749,7 @@
         <v>0.2705127795580922</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.3537541894663135</v>
+        <v>0.3537541894663138</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>15.69637021647466</v>
+        <v>16.19870973754226</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.684333716694564</v>
+        <v>6.44722186523135</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5.387555086972767</v>
+        <v>5.305350394918528</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8.649755380651223</v>
+        <v>8.71535778549775</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3706195362336276</v>
+        <v>0.3842623148433069</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.144936570919747</v>
+        <v>0.1411636073740327</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1409732882169126</v>
+        <v>0.1365360033092998</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2177793370392957</v>
+        <v>0.2226654791047542</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>25.37211352200088</v>
+        <v>24.93698364055301</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>15.34610021506014</v>
+        <v>15.92824719438679</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14.14568237355484</v>
+        <v>14.50888631481801</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17.29768445336405</v>
+        <v>17.36217933182238</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.685746813652464</v>
+        <v>0.6689459289706471</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3712701112425135</v>
+        <v>0.3851495866365091</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4124757411061287</v>
+        <v>0.4254360707286959</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5064579345580318</v>
+        <v>0.5105488331227563</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>8.574382416260097</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6.518645890690849</v>
+        <v>6.518645890690861</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.215410290232803</v>
@@ -849,7 +849,7 @@
         <v>0.2119901060221466</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1438532535145898</v>
+        <v>0.1438532535145901</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.708448615521299</v>
+        <v>4.78366688871423</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.734556895308675</v>
+        <v>6.599676951533617</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.093379384547855</v>
+        <v>3.637489066163431</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.179198069674517</v>
+        <v>1.256561723809173</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.09457839678479689</v>
+        <v>0.0954554152849299</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1557987650576638</v>
+        <v>0.1561000413398575</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07248073848161539</v>
+        <v>0.08416097991738695</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.02393077893695569</v>
+        <v>0.02535600478851539</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>15.57892089899374</v>
+        <v>15.67246265581705</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>16.88570455331113</v>
+        <v>16.89146261759612</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.89591897257272</v>
+        <v>14.07528054566043</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.24955704728137</v>
+        <v>11.70365449312774</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3566913784541</v>
+        <v>0.3565580310766844</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4457997907953517</v>
+        <v>0.4519896317981829</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3659682929187704</v>
+        <v>0.3693560889141065</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2690400216682339</v>
+        <v>0.2756472568562144</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>8.687232566051534</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5.063338712408083</v>
+        <v>5.063338712408072</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2727982713849558</v>
@@ -949,7 +949,7 @@
         <v>0.2354219384901506</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.09894670926364543</v>
+        <v>0.0989467092636452</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.106046279167828</v>
+        <v>7.049424850023405</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.929483720549283</v>
+        <v>5.479040635674166</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.414428968224623</v>
+        <v>4.36789132659548</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5007939345561481</v>
+        <v>0.6598722299155433</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1637301079424046</v>
+        <v>0.1588183589446486</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1029283271472827</v>
+        <v>0.1155772489087028</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1130442439527712</v>
+        <v>0.1117074157381212</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.008113691687772442</v>
+        <v>0.01133939944611018</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>15.80734601355229</v>
+        <v>16.09184242845788</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>14.38150360444158</v>
+        <v>14.77228840590637</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13.07649581775611</v>
+        <v>13.28486556680137</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9.198586970523278</v>
+        <v>9.437702607865699</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3963940783956471</v>
+        <v>0.4033813077955387</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3355261716363208</v>
+        <v>0.3429640376183479</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3782511488318937</v>
+        <v>0.3856731147790254</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1893669898277058</v>
+        <v>0.1942815908159223</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>8.879923256312471</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7.461115543845981</v>
+        <v>7.461115543845964</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3401124185128364</v>
@@ -1049,7 +1049,7 @@
         <v>0.2279974696963817</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1640641837942219</v>
+        <v>0.1640641837942215</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>11.8421664207672</v>
+        <v>12.20951958578674</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.913806250425156</v>
+        <v>7.992847906016906</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.183743923773371</v>
+        <v>6.487290095154583</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.280497935541859</v>
+        <v>4.912124192218427</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2725633815947037</v>
+        <v>0.2779455002893035</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1741061358692133</v>
+        <v>0.1757696295392482</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1534364359408607</v>
+        <v>0.159254380520796</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1122127895204134</v>
+        <v>0.1045890277845376</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>16.77970809993361</v>
+        <v>16.94650365462938</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.64822088054042</v>
+        <v>12.76024019063288</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.31921478551841</v>
+        <v>11.22242435623664</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.943462243247708</v>
+        <v>9.541517972483785</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4076186052210329</v>
+        <v>0.4132091545548734</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2957495173034206</v>
+        <v>0.2996424047748146</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3012981245489668</v>
+        <v>0.2974827575037657</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2236286774109436</v>
+        <v>0.2157307244439311</v>
       </c>
     </row>
     <row r="19">
